--- a/planilha-1b.xlsx
+++ b/planilha-1b.xlsx
@@ -29,6 +29,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -113,7 +114,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -123,70 +124,70 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B1" s="0" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E1" s="0" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
+        <v>-2</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>-7</v>
+      </c>
+      <c r="E2" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>7</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
